--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74,9%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,27; 73,31</t>
+          <t>57,39; 72,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,49; 72,15</t>
+          <t>58,99; 71,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,94; 79,62</t>
+          <t>70,34; 80,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,74; 70,53</t>
+          <t>62,71; 70,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,83; 75,59</t>
+          <t>67,58; 75,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,05; 69,6</t>
+          <t>62,82; 69,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,52; 72,84</t>
+          <t>67,47; 73,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,48; 60,12</t>
+          <t>27,68; 60,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,64; 74,64</t>
+          <t>69,52; 75,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,37; 76,91</t>
+          <t>53,23; 76,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,53; 73,19</t>
+          <t>69,37; 73,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,49; 64,32</t>
+          <t>42,46; 65,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,41; 72,83</t>
+          <t>63,06; 72,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,21; 54,11</t>
+          <t>44,3; 54,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,37; 78,28</t>
+          <t>72,54; 79,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,86; 53,3</t>
+          <t>45,24; 53,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,47; 74,85</t>
+          <t>69,52; 75,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,07; 52,7</t>
+          <t>46,26; 52,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,65%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,41; 71,8</t>
+          <t>67,03; 71,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 58,46</t>
+          <t>33,13; 58,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,29; 75,25</t>
+          <t>72,05; 76,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,18; 71,48</t>
+          <t>54,86; 72,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,21; 73,11</t>
+          <t>70,31; 73,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,39; 61,6</t>
+          <t>46,03; 61,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28210</t>
+          <t>48013</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52192</t>
+          <t>88287</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80401</t>
+          <t>136300</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25370; 30859</t>
+          <t>41897; 52986</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>134723; 163387</t>
+          <t>133595; 162342</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48736; 55480</t>
+          <t>81835; 93786</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>245073; 275514</t>
+          <t>244976; 276158</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75817; 84491</t>
+          <t>127971; 143475</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>389106; 429527</t>
+          <t>387672; 429250</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>160869</t>
+          <t>330294</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>168886</t>
+          <t>326702</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>329755</t>
+          <t>656996</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>154203; 166369</t>
+          <t>315197; 343181</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>371400; 843153</t>
+          <t>388144; 841825</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>162690; 174370</t>
+          <t>313612; 339223</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>736372; 1061196</t>
+          <t>734405; 1053284</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>321243; 338153</t>
+          <t>637037; 675130</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1154327; 1789390</t>
+          <t>1181177; 1820074</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56214</t>
+          <t>139950</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80638</t>
+          <t>192604</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>136852</t>
+          <t>332554</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52619; 59494</t>
+          <t>129823; 149478</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>200763; 245724</t>
+          <t>201170; 246228</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>77038; 84503</t>
+          <t>183062; 201859</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>197736; 234900</t>
+          <t>199409; 236396</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>131733; 141933</t>
+          <t>318574; 345708</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>412248; 471613</t>
+          <t>413993; 472039</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>245292</t>
+          <t>518257</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>301716</t>
+          <t>607594</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>547008</t>
+          <t>1125850</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>237418; 252865</t>
+          <t>500085; 536789</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>703855; 1217712</t>
+          <t>690091; 1217257</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>293188; 309455</t>
+          <t>590662; 625020</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1198030; 1580485</t>
+          <t>1213051; 1609296</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>536028; 558170</t>
+          <t>1101061; 1150761</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1949036; 2645216</t>
+          <t>1976579; 2642876</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>65,87%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>65,77%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>65,94%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>56,63%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>67,47%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58,43%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>75,88%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>66,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>58,43%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>66,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57,63%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>71,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>66,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>57,63%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>59,91; 71,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>51,46; 61,26</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>57,39; 72,58</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>58,99; 71,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>51,46; 61,26</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>63,6; 71,3</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54,42; 62,48</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>70,34; 80,61</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>62,71; 70,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>54,42; 62,48</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>63,72; 70,02</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 60,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>67,58; 75,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>62,82; 69,56</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>54,48; 60,52</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>60,7%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48,62%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>70,7%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>48,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,62%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>60,16%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>47,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>72,42%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>62,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>47,73%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>60,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>71,54%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>55,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,18%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>57,08; 63,96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45,9; 51,44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>67,47; 73,46</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>27,68; 60,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>45,9; 51,44</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>57,27; 62,66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45,18; 50,58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>69,52; 75,2</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>53,23; 76,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>45,18; 50,58</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>58,35; 62,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46,28; 50,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>69,37; 73,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>42,46; 65,42</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>46,28; 50,28</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>50,37%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49,08%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>67,98%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>49,45%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>49,08%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>49,51%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45,15%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>76,32%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>49,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,15%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>72,57%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49,39%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>47,02%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>45,47; 55,32</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44,55; 52,99</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>63,06; 72,6</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>44,3; 54,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>44,55; 52,99</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>45,3; 53,38</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41,48; 49,62</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>72,54; 79,99</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>45,24; 53,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>41,48; 49,62</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>47,02; 53,22</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 50,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>69,52; 75,44</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>46,26; 52,75</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>44,17; 50,14</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>58,79%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49,91%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>69,46%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>50,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,91%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>59,19%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48,87%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>74,11%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>60,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,87%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>71,9%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>55,86%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49,37%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>55,96; 61,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47,84; 52,01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>67,03; 71,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>33,13; 58,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>47,84; 52,01</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>57,23; 61,15</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46,75; 50,88</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>72,05; 76,24</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>54,86; 72,78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>46,75; 50,88</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>57,48; 60,71</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47,95; 50,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>70,31; 73,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>46,03; 61,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>47,95; 50,75</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>318</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>477</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>625</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>167027</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>117473</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>48013</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>149333</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>117473</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>287452</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>151362</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>88287</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>260293</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>151362</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>454479</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>268835</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>136300</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>409627</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>268835</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>151923; 181444</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>106747; 127076</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>41897; 52986</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>133595; 162342</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>106747; 127076</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>270928; 303760</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>140961; 161851</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>81835; 93786</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>244976; 276158</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>140961; 161851</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>433014; 475869</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>254120; 282288</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>127971; 143475</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>387672; 429250</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>254120; 282288</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>960</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>987</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1947</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1733</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1428</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>776433</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>406604</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>330294</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>683550</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>406604</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>760738</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>400613</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>326702</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>863592</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>400613</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1537171</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>807216</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>656996</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1547142</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>807216</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>730193; 818218</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>383890; 430238</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>315197; 343181</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>388144; 841825</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>383890; 430238</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>724151; 792333</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>379212; 424532</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>313612; 339223</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>734405; 1053284</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>379212; 424532</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1484320; 1587081</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>775456; 842410</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>637037; 675130</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1181177; 1820074</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>775456; 842410</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>337</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>495</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>832</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>599</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>601</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>253947</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>182766</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>139950</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>224559</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>182766</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>243518</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>185498</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>192604</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>217433</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>185498</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>497465</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>368264</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>332554</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>441992</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>368264</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>229198; 278893</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>165884; 197329</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>129823; 149478</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>201170; 246228</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>165884; 197329</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>222809; 262546</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>170441; 203851</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>183062; 201859</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>199409; 236396</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>170441; 203851</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>468324; 530034</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>345949; 392670</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>318574; 345708</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>413993; 472039</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>345949; 392670</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1456</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1174</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1800</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1810</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1318</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>2984</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3256</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2984</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2654</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1197407</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>706842</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>518257</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1057442</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>706842</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1291708</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>737474</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>607594</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1341318</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>737474</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2489116</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1444316</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1125850</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2398760</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1444316</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1139903; 1245427</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>677477; 736545</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>500085; 536789</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>690091; 1217257</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>677477; 736545</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1248887; 1334538</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>705579; 767825</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>590662; 625020</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1213051; 1609296</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>705579; 767825</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2425115; 2561649</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1402790; 1484472</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1101061; 1150761</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1976579; 2642876</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1402790; 1484472</t>
         </is>
       </c>
     </row>
